--- a/output_data/charts/0700000US390497771499999.xlsx
+++ b/output_data/charts/0700000US390497771499999.xlsx
@@ -141,11 +141,23 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100"/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -199,13 +211,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.7076481871170784</c:v>
+                  <c:v>0.6517812249762565</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.9245733094177038</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.299427010342197</c:v>
+                  <c:v>1.153075162760994</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.223535881220786</c:v>
@@ -214,25 +226,25 @@
                   <c:v>1.36829535277142</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.770591556364093</c:v>
+                  <c:v>1.763534282667336</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.826640854305877</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.919442915172527</c:v>
+                  <c:v>1.993839927388516</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.013002891129554</c:v>
+                  <c:v>2.013722077585835</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.477762775094308</c:v>
+                  <c:v>2.477762775094309</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.969238687200602</c:v>
+                  <c:v>2.91909154492788</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.284274454063832</c:v>
+                  <c:v>5.284274454063833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -255,7 +267,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" baseline="0"/>
+              <a:defRPr sz="1600" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -270,7 +284,7 @@
         <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5.812701899470215"/>
+          <c:max val="6"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -282,7 +296,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" baseline="0"/>
+              <a:defRPr sz="1600" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -292,6 +308,37 @@
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="80C080"/>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:srgbClr val="80C080"/>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:srgbClr val="FFFF80"/>
+            </a:gs>
+            <a:gs pos="66666">
+              <a:srgbClr val="FFFF80"/>
+            </a:gs>
+            <a:gs pos="66666">
+              <a:srgbClr val="FFD280"/>
+            </a:gs>
+            <a:gs pos="83333">
+              <a:srgbClr val="FFD280"/>
+            </a:gs>
+            <a:gs pos="83333">
+              <a:srgbClr val="FF8080"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FF8080"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -313,10 +360,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -645,7 +692,7 @@
         <v>2012</v>
       </c>
       <c r="B2" s="1">
-        <v>0.7076481871170784</v>
+        <v>0.6517812249762565</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -661,7 +708,7 @@
         <v>2014</v>
       </c>
       <c r="B4" s="1">
-        <v>1.299427010342197</v>
+        <v>1.153075162760994</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -685,7 +732,7 @@
         <v>2017</v>
       </c>
       <c r="B7" s="1">
-        <v>1.770591556364093</v>
+        <v>1.763534282667336</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -701,7 +748,7 @@
         <v>2019</v>
       </c>
       <c r="B9" s="1">
-        <v>1.919442915172527</v>
+        <v>1.993839927388516</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -709,7 +756,7 @@
         <v>2020</v>
       </c>
       <c r="B10" s="1">
-        <v>2.013002891129554</v>
+        <v>2.013722077585835</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -717,7 +764,7 @@
         <v>2021</v>
       </c>
       <c r="B11" s="1">
-        <v>2.477762775094308</v>
+        <v>2.477762775094309</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -725,7 +772,7 @@
         <v>2022</v>
       </c>
       <c r="B12" s="1">
-        <v>2.969238687200602</v>
+        <v>2.91909154492788</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -733,7 +780,7 @@
         <v>2023</v>
       </c>
       <c r="B13" s="1">
-        <v>5.284274454063832</v>
+        <v>5.284274454063833</v>
       </c>
     </row>
   </sheetData>
